--- a/extracted_data/Tousi_DV_W_201712_3_1218_1222_extracted.xlsx
+++ b/extracted_data/Tousi_DV_W_201712_3_1218_1222_extracted.xlsx
@@ -525,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>⚡ Parallel Chunked PDF→DOCX→Excel Converter</t>
+          <t>🌐 Global Chunk Pool PDF→DOCX→Excel Converter</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Max Workers: 4</t>
+          <t>Max Workers: 6</t>
         </is>
       </c>
     </row>
@@ -592,42 +592,49 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Processing Method: Parallel chunking</t>
+          <t>Processing Method: Global chunk pool</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Parallel Processing Benefits:</t>
+          <t>Global Pool Benefits:</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>🚀 Multi-core utilization</t>
+          <t>🌐 Cross-PDF worker utilization</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>⚡ Simultaneous chunk processing</t>
+          <t>⚡ No idle worker time</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>🔧 Complete table preservation</t>
+          <t>🚀 Maximum efficiency</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>📊 Maximum speed optimization</t>
+          <t>📊 Perfect table preservation</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>💾 Separate Excel per PDF</t>
         </is>
       </c>
     </row>
